--- a/data files/Purchase Order/PRIMEWEAR.xlsx
+++ b/data files/Purchase Order/PRIMEWEAR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4F895-E8ED-4540-B09E-621B7DB5F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4464" yWindow="456" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>To,</t>
   </si>
@@ -67,13 +68,28 @@
   </si>
   <si>
     <t>01/08/2019</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +191,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,7 +227,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,7 +257,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -240,7 +267,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,6 +288,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -268,13 +304,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +356,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -346,6 +390,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -380,9 +425,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,21 +601,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
@@ -579,7 +625,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -587,7 +633,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -597,7 +643,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -605,7 +651,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -615,7 +661,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
@@ -625,7 +671,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -633,7 +679,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -643,7 +689,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -653,15 +699,26 @@
       <c r="E9" s="5"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -679,7 +736,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -694,7 +751,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -710,7 +767,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -718,7 +775,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -728,7 +785,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -738,7 +795,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -746,13 +803,13 @@
       <c r="E17" s="15"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
@@ -760,7 +817,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -770,7 +827,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -778,7 +835,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -786,7 +843,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -794,45 +851,45 @@
       <c r="E23" s="9"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E30" s="19"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="25"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D32" s="26"/>
       <c r="E32" s="25"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="4:6" ht="15.75">
+    <row r="33" spans="4:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D33" s="26"/>
       <c r="E33" s="25"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="4:6" ht="15.75">
+    <row r="34" spans="4:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.11" top="2.0299999999999998" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -840,24 +897,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
